--- a/doc/ue_pso_ios.xlsx
+++ b/doc/ue_pso_ios.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3C800-63E0-4244-A1DA-C188FFAC195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t>void FMetalPipelineStateCacheManager::OnShaderPipelineCachePreOpen(FString const&amp; Name, EShaderPlatform Platform, bool&amp; bReady)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// only do this when haven't gotten a full pso cache already</t>
+  </si>
+  <si>
+    <t>struct stat FileInfo;</t>
+  </si>
+  <si>
+    <t>static FString PrivateWritePathBase = FString([NSSearchPathForDirectoriesInDomains(NSLibraryDirectory, NSUserDomainMask, YES) objectAtIndex:0]) + TEXT("/");</t>
+  </si>
+  <si>
+    <t>FString Result = PrivateWritePathBase + FString([NSString stringWithFormat:@"/Caches/%@/com.apple.metal/functions.data", [NSBundle mainBundle].bundleIdentifier]);</t>
+  </si>
+  <si>
+    <t>FString Result2 = PrivateWritePathBase + FString([NSString stringWithFormat:@"/Caches/%@/com.apple.metal/usecache.txt", [NSBundle mainBundle].bundleIdentifier]);</t>
+  </si>
+  <si>
+    <t>if (stat(TCHAR_TO_UTF8(*Result), &amp;FileInfo) != -1 &amp;&amp; ((FileInfo.st_size / 1024 / 1024) &gt; GMetalCacheMinSize) &amp;&amp; stat(TCHAR_TO_UTF8(*Result2), &amp;FileInfo) != -1)</t>
+  </si>
+  <si>
+    <t>bReady = false;</t>
+  </si>
+  <si>
+    <t>FShaderPipelineCache::SetBatchMode(FShaderPipelineCache::BatchMode::Background);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>bReady = true;</t>
+  </si>
+  <si>
+    <t>FShaderPipelineCache::SetBatchMode(FShaderPipelineCache::BatchMode::Precompile);</t>
+  </si>
+  <si>
+    <t>IOS这部分由系统自动保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +412,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_pso_ios.xlsx
+++ b/doc/ue_pso_ios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3C800-63E0-4244-A1DA-C188FFAC195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FCD404-A524-4B23-BE86-C977DD95B686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>void FMetalPipelineStateCacheManager::OnShaderPipelineCachePreOpen(FString const&amp; Name, EShaderPlatform Platform, bool&amp; bReady)</t>
   </si>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>IOS这部分由系统自动保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>functions.data由系统生成，编译PSO的时候创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usecache.txt是PSO编译完成后，UE生成，上面的逻辑就是判断usecache.txt有，则表现有PSO，不需要在编译了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:D23"/>
+  <dimension ref="B5:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,6 +524,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
